--- a/作业二－电话费问题/等价类测试用例.xlsx
+++ b/作业二－电话费问题/等价类测试用例.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liki/Desktop/Calendar/作业二－电话费问题/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="1800" windowWidth="15200" windowHeight="11960" tabRatio="500"/>
+    <workbookView xWindow="10620" yWindow="1320" windowWidth="15200" windowHeight="11960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,177 +404,265 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-1</v>
+        <v>220</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>50000</v>
+        <v>240</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-2</v>
+        <v>300</v>
       </c>
       <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-1</v>
+        <v>290</v>
       </c>
       <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>60000</v>
+        <v>600</v>
       </c>
       <c r="B19">
-        <v>-1</v>
-      </c>
-      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>50000</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>60000</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>80000</v>
       </c>
-      <c r="B20">
+      <c r="B28">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
     </row>
